--- a/fastqFiles/fastq_J.PLAGGENBERG_11.11.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_11.11.19.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8DC24-1B3C-EA42-9494-373EEB3C2658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="19800" yWindow="460" windowWidth="16800" windowHeight="19920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,257 +33,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.01.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiniSeq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="65">
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>11.01.19</t>
+  </si>
+  <si>
+    <t>J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t>MiniSeq</t>
   </si>
   <si>
     <t xml:space="preserve">spikein </t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_1_GTAC_13_SIC_Index06_GAGGCGT_GACCTTGT_S15_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_2_GTAC_14_SIC_Index06_TTTAACT_GACCTTGT_S16_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3_GTAC_15_SIC_Index06_GGTCCTC_GACCTTGT_S17_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_4_GTAC_16_SIC_Index06_CGGTGGC_GACCTTGT_S18_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_5_GTAC_17_SIC_Index06_ACTGTCG_GACCTTGT_S19_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_6_GTAC_18_SIC_Index06_GTATTTG_GACCTTGT_S20_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_7_GTAC_19_SIC_Index06_GAGTACG_GACCTTGT_S21_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_8_GTAC_20_SIC_Index06_ACAGATA_GACCTTGT_S22_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_9_GTAC_21_SIC_Index06_CTCAATG_GACCTTGT_S23_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_10_GTAC_22_SIC_Index06_AAATGCA_GACCTTGT_S24_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_11_GTAC_23_SIC_Index06_ACGCGGG_GACCTTGT_S25_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_12_GTAC_24_SIC_Index06_GGAGTCC_GACCTTGT_S26_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_13_GTAC_25_SIC_Index06_CGTCGCT_GACCTTGT_S27_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_14_GTAC_26_SIC_Index06_TCAACTG_GACCTTGT_S28_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_15_GTAC_27_SIC_Index06_TGTTTGT_GACCTTGT_S29_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_16_GTAC_28_SIC_Index06_TACATGG_GACCTTGT_S30_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_17_GTAC_29_SIC_Index06_GTTCTCA_GACCTTGT_S31_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_18_GTAC_30_SIC_Index06_CTGGTGG_GACCTTGT_S32_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_19_GTAC_31_SIC_Index06_TGCCCAT_GACCTTGT_S33_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_20_GTAC_32_SIC_Index06_AAACCTT_GACCTTGT_S34_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_21_GTAC_33_SIC_Index06_ACCATAC_GACCTTGT_S35_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_22_GTAC_34_SIC_Index06_AATACGC_GACCTTGT_S36_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_23_GTAC_35_SIC_Index06_CGCTACA_GACCTTGT_S37_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_24_GTAC_36_SIC_Index06_TGGCATA_GACCTTGT_S38_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_25_GTAC_37_SIC_Index06_TTTTGTC_GACCTTGT_S39_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_26_GTAC_38_SIC_Index06_ACCCACT_GACCTTGT_S40_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_27_GTAC_39_SIC_Index06_CCGGACC_GACCTTGT_S41_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_28_GTAC_40_SIC_Index06_GTACGGC_GACCTTGT_S42_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_29_GTAC_41_SIC_Index06_TTGCCCC_GACCTTGT_S43_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_30_GTAC_42_SIC_Index06_ACTCCAA_GACCTTGT_S44_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_31_GTAC_43_SIC_Index06_TGTGCCA_GACCTTGT_S45_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_32_GTAC_44_SIC_Index06_AACGGAG_GACCTTGT_S46_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_33_GTAC_45_SIC_Index06_GATAGTT_GACCTTGT_S47_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_34_GTAC_46_SIC_Index06_GGTGAAT_GACCTTGT_S48_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_35_GTAC_47_SIC_Index06_ATGTTCT_GACCTTGT_S49_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_36_GTAC_48_SIC_Index06_GTAAAAA_GACCTTGT_S50_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_37_GTAC_49_SIC_Index06_GTCTGAT_GACCTTGT_S51_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_38_GTAC_50_SIC_Index06_CAATATC_GACCTTGT_S52_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_39_GTAC_51_SIC_Index06_CTCCCGA_GACCTTGT_S53_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_40_GTAC_52_SIC_Index06_GCCGTTT_GACCTTGT_S54_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C1_GTAC_1_SIC_Index06_TGAGGTT_GACCTTGT_S3_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C2_GTAC_2_SIC_Index06_GCTTAGA_GACCTTGT_S4_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C3_GTAC_3_SIC_Index06_ATGACAG_GACCTTGT_S5_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C4_GTAC_4_SIC_Index06_CACCTCC_GACCTTGT_S6_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C5_GTAC_5_SIC_Index06_ATCGAGC_GACCTTGT_S7_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C6_GTAC_6_SIC_Index06_TACTCTA_GACCTTGT_S8_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C7_GTAC_7_SIC_Index06_AGACTGA_GACCTTGT_S9_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C8_GTAC_8_SIC_Index06_CTTGGAA_GACCTTGT_S10_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C9_GTAC_9_SIC_Index06_CCGATTA_GACCTTGT_S11_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C10_GTAC_10_SIC_Index06_GGCAGCG_GACCTTGT_S12_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C11_GTAC_11_SIC_Index06_CCATCAT_GACCTTGT_S13_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_C12_GTAC_12_SIC_Index06_TAACAAG_GACCTTGT_S14_L001_R1_001.fastq.gz</t>
+    <t>Brent_1_GTAC_13_SIC_Index06_GAGGCGT_GACCTTGT_S15_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_2_GTAC_14_SIC_Index06_TTTAACT_GACCTTGT_S16_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3_GTAC_15_SIC_Index06_GGTCCTC_GACCTTGT_S17_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_4_GTAC_16_SIC_Index06_CGGTGGC_GACCTTGT_S18_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5_GTAC_17_SIC_Index06_ACTGTCG_GACCTTGT_S19_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6_GTAC_18_SIC_Index06_GTATTTG_GACCTTGT_S20_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_7_GTAC_19_SIC_Index06_GAGTACG_GACCTTGT_S21_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_9_GTAC_21_SIC_Index06_CTCAATG_GACCTTGT_S23_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_10_GTAC_22_SIC_Index06_AAATGCA_GACCTTGT_S24_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_11_GTAC_23_SIC_Index06_ACGCGGG_GACCTTGT_S25_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_12_GTAC_24_SIC_Index06_GGAGTCC_GACCTTGT_S26_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_13_GTAC_25_SIC_Index06_CGTCGCT_GACCTTGT_S27_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_14_GTAC_26_SIC_Index06_TCAACTG_GACCTTGT_S28_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_15_GTAC_27_SIC_Index06_TGTTTGT_GACCTTGT_S29_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_17_GTAC_29_SIC_Index06_GTTCTCA_GACCTTGT_S31_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_18_GTAC_30_SIC_Index06_CTGGTGG_GACCTTGT_S32_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_19_GTAC_31_SIC_Index06_TGCCCAT_GACCTTGT_S33_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_20_GTAC_32_SIC_Index06_AAACCTT_GACCTTGT_S34_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_21_GTAC_33_SIC_Index06_ACCATAC_GACCTTGT_S35_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_22_GTAC_34_SIC_Index06_AATACGC_GACCTTGT_S36_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_23_GTAC_35_SIC_Index06_CGCTACA_GACCTTGT_S37_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_24_GTAC_36_SIC_Index06_TGGCATA_GACCTTGT_S38_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_25_GTAC_37_SIC_Index06_TTTTGTC_GACCTTGT_S39_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_26_GTAC_38_SIC_Index06_ACCCACT_GACCTTGT_S40_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_27_GTAC_39_SIC_Index06_CCGGACC_GACCTTGT_S41_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_28_GTAC_40_SIC_Index06_GTACGGC_GACCTTGT_S42_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_29_GTAC_41_SIC_Index06_TTGCCCC_GACCTTGT_S43_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_30_GTAC_42_SIC_Index06_ACTCCAA_GACCTTGT_S44_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_31_GTAC_43_SIC_Index06_TGTGCCA_GACCTTGT_S45_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_32_GTAC_44_SIC_Index06_AACGGAG_GACCTTGT_S46_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_33_GTAC_45_SIC_Index06_GATAGTT_GACCTTGT_S47_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_34_GTAC_46_SIC_Index06_GGTGAAT_GACCTTGT_S48_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_35_GTAC_47_SIC_Index06_ATGTTCT_GACCTTGT_S49_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_36_GTAC_48_SIC_Index06_GTAAAAA_GACCTTGT_S50_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_37_GTAC_49_SIC_Index06_GTCTGAT_GACCTTGT_S51_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_38_GTAC_50_SIC_Index06_CAATATC_GACCTTGT_S52_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_39_GTAC_51_SIC_Index06_CTCCCGA_GACCTTGT_S53_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_40_GTAC_52_SIC_Index06_GCCGTTT_GACCTTGT_S54_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10.22.19</t>
+  </si>
+  <si>
+    <t>Brent_C2_GTAC_2_SIC_Index06_GCTTAGA_GACCTTGT_S4_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C3_GTAC_3_SIC_Index06_ATGACAG_GACCTTGT_S5_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C4_GTAC_4_SIC_Index06_CACCTCC_GACCTTGT_S6_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C5_GTAC_5_SIC_Index06_ATCGAGC_GACCTTGT_S7_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C6_GTAC_6_SIC_Index06_TACTCTA_GACCTTGT_S8_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C7_GTAC_7_SIC_Index06_AGACTGA_GACCTTGT_S9_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C8_GTAC_8_SIC_Index06_CTTGGAA_GACCTTGT_S10_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C9_GTAC_9_SIC_Index06_CCGATTA_GACCTTGT_S11_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C10_GTAC_10_SIC_Index06_GGCAGCG_GACCTTGT_S12_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_C11_GTAC_11_SIC_Index06_CCATCAT_GACCTTGT_S13_L001_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -289,7 +268,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -297,93 +276,350 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1048572"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,17 +671,17 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>4010</v>
       </c>
       <c r="E2" s="1"/>
@@ -458,13 +694,13 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>31.9</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="n">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
         <v>84562</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -485,17 +721,17 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>4010</v>
       </c>
       <c r="E3" s="1"/>
@@ -508,30 +744,30 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>146</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
         <v>44269</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>4010</v>
       </c>
       <c r="E4" s="1"/>
@@ -544,30 +780,30 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>104</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>39177</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>4010</v>
       </c>
       <c r="E5" s="1"/>
@@ -580,30 +816,30 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>55.5</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="n">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
         <v>42098</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>4010</v>
       </c>
       <c r="E6" s="1"/>
@@ -616,30 +852,30 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>96.6</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="n">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
         <v>38432</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>4010</v>
       </c>
       <c r="E7" s="1"/>
@@ -652,30 +888,30 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>116</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="n">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>39871</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>4010</v>
       </c>
       <c r="E8" s="1"/>
@@ -688,30 +924,30 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>84.2</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="n">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
         <v>48450</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
         <v>4010</v>
       </c>
       <c r="E9" s="1"/>
@@ -724,30 +960,30 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>5040</v>
+      <c r="I9" s="3">
+        <v>101</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>41001</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
         <v>4010</v>
       </c>
       <c r="E10" s="1"/>
@@ -760,30 +996,30 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>41001</v>
+      <c r="I10" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44315</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="C11" s="3">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
         <v>4010</v>
       </c>
       <c r="E11" s="1"/>
@@ -796,30 +1032,30 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>44315</v>
+      <c r="I11" s="3">
+        <v>202</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>23211</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
         <v>4010</v>
       </c>
       <c r="E12" s="1"/>
@@ -832,30 +1068,30 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>202</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>23211</v>
+      <c r="I12" s="3">
+        <v>86.7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45955</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="C13" s="3">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>4010</v>
       </c>
       <c r="E13" s="1"/>
@@ -868,30 +1104,30 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>45955</v>
+      <c r="I13" s="3">
+        <v>62.9</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>48377</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
         <v>4010</v>
       </c>
       <c r="E14" s="1"/>
@@ -904,30 +1140,30 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>48377</v>
+      <c r="I14" s="3">
+        <v>122</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>33177</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="C15" s="3">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
         <v>4010</v>
       </c>
       <c r="E15" s="1"/>
@@ -940,30 +1176,30 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>122</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>33177</v>
+      <c r="I15" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45021</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="C16" s="3">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
         <v>4010</v>
       </c>
       <c r="E16" s="1"/>
@@ -976,30 +1212,30 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="3" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>45021</v>
+      <c r="I16" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>42421</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="C17" s="3">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3">
         <v>4010</v>
       </c>
       <c r="E17" s="1"/>
@@ -1012,30 +1248,30 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="3" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>1712</v>
+      <c r="I17" s="3">
+        <v>201</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>28016</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="C18" s="3">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3">
         <v>4010</v>
       </c>
       <c r="E18" s="1"/>
@@ -1048,30 +1284,30 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>42421</v>
+      <c r="I18" s="3">
+        <v>183</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>34055</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
         <v>4010</v>
       </c>
       <c r="E19" s="1"/>
@@ -1084,30 +1320,30 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>201</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>28016</v>
+      <c r="I19" s="3">
+        <v>104</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>33545</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="C20" s="3">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
         <v>4010</v>
       </c>
       <c r="E20" s="1"/>
@@ -1120,30 +1356,30 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="3" t="n">
-        <v>183</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>34055</v>
+      <c r="I20" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>56016</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="C21" s="3">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
         <v>4010</v>
       </c>
       <c r="E21" s="1"/>
@@ -1156,30 +1392,30 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>33545</v>
+      <c r="I21" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>33493</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="C22" s="3">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
         <v>4010</v>
       </c>
       <c r="E22" s="1"/>
@@ -1192,30 +1428,30 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="3" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>56016</v>
+      <c r="I22" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>40822</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3" t="n">
+      <c r="C23" s="3">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3">
         <v>4010</v>
       </c>
       <c r="E23" s="1"/>
@@ -1228,30 +1464,30 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>33493</v>
+      <c r="I23" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>33080</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="C24" s="3">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
         <v>4010</v>
       </c>
       <c r="E24" s="1"/>
@@ -1264,30 +1500,30 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>40822</v>
+      <c r="I24" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>73914</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" s="3">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3">
         <v>4010</v>
       </c>
       <c r="E25" s="1"/>
@@ -1300,30 +1536,30 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="3" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>33080</v>
+      <c r="I25" s="3">
+        <v>108</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>15550</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="C26" s="3">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3">
         <v>4010</v>
       </c>
       <c r="E26" s="1"/>
@@ -1336,30 +1572,30 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="3" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>73914</v>
+      <c r="I26" s="3">
+        <v>87.4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>31849</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="C27" s="3">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3">
         <v>4010</v>
       </c>
       <c r="E27" s="1"/>
@@ -1372,30 +1608,30 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15550</v>
+      <c r="I27" s="3">
+        <v>46.8</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>25670</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" s="3">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
         <v>4010</v>
       </c>
       <c r="E28" s="1"/>
@@ -1408,30 +1644,30 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="3" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>31849</v>
+      <c r="I28" s="3">
+        <v>95</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>40872</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3" t="n">
+      <c r="C29" s="3">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3">
         <v>4010</v>
       </c>
       <c r="E29" s="1"/>
@@ -1444,30 +1680,30 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="3" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>25670</v>
+      <c r="I29" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>49228</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3" t="n">
+      <c r="C30" s="3">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3">
         <v>4010</v>
       </c>
       <c r="E30" s="1"/>
@@ -1480,30 +1716,30 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>40872</v>
+      <c r="I30" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45937</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3" t="n">
+      <c r="C31" s="3">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3">
         <v>4010</v>
       </c>
       <c r="E31" s="1"/>
@@ -1516,30 +1752,30 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>49228</v>
+      <c r="I31" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>28451</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3" t="n">
+      <c r="C32" s="3">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3">
         <v>4010</v>
       </c>
       <c r="E32" s="1"/>
@@ -1552,30 +1788,30 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="3" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>45937</v>
+      <c r="I32" s="3">
+        <v>69</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>48840</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3" t="n">
+      <c r="C33" s="3">
+        <v>34</v>
+      </c>
+      <c r="D33" s="3">
         <v>4010</v>
       </c>
       <c r="E33" s="1"/>
@@ -1588,30 +1824,30 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="3" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>28451</v>
+      <c r="I33" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>43346</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="n">
+      <c r="C34" s="3">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3">
         <v>4010</v>
       </c>
       <c r="E34" s="1"/>
@@ -1624,30 +1860,30 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="3" t="n">
-        <v>69</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>48840</v>
+      <c r="I34" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>74335</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3" t="n">
+      <c r="C35" s="3">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3">
         <v>4010</v>
       </c>
       <c r="E35" s="1"/>
@@ -1660,30 +1896,30 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="3" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>43346</v>
+      <c r="I35" s="3">
+        <v>116</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>44942</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3" t="n">
+      <c r="C36" s="3">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3">
         <v>4010</v>
       </c>
       <c r="E36" s="1"/>
@@ -1696,30 +1932,30 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="3" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>74335</v>
+      <c r="I36" s="3">
+        <v>94.3</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>39018</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="n">
+      <c r="C37" s="3">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3">
         <v>4010</v>
       </c>
       <c r="E37" s="1"/>
@@ -1732,30 +1968,30 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>116</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>44942</v>
+      <c r="I37" s="3">
+        <v>145</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>40649</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3" t="n">
+      <c r="C38" s="3">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3">
         <v>4010</v>
       </c>
       <c r="E38" s="1"/>
@@ -1768,30 +2004,30 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="3" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>39018</v>
+      <c r="I38" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="5">
+        <v>68274</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3" t="n">
+      <c r="C39" s="3">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
         <v>4010</v>
       </c>
       <c r="E39" s="1"/>
@@ -1804,30 +2040,30 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="3" t="n">
-        <v>145</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>40649</v>
+      <c r="I39" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>37750</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3" t="n">
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
         <v>4010</v>
       </c>
       <c r="E40" s="1"/>
@@ -1840,30 +2076,30 @@
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="3" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>68274</v>
+      <c r="I40" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>43104</v>
       </c>
       <c r="L40" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3" t="n">
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
         <v>4010</v>
       </c>
       <c r="E41" s="1"/>
@@ -1876,30 +2112,30 @@
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="3" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>37750</v>
+      <c r="I41" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>19424</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="n">
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
         <v>4010</v>
       </c>
       <c r="E42" s="1"/>
@@ -1912,30 +2148,30 @@
       <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="3" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="L42" s="6" t="s">
+      <c r="I42" s="3">
+        <v>105</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>46956</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3" t="n">
+      <c r="C43" s="7">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
         <v>4010</v>
       </c>
       <c r="E43" s="1"/>
@@ -1948,30 +2184,30 @@
       <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="3" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>43104</v>
+      <c r="I43" s="3">
+        <v>140</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>18311</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" s="3" t="n">
+      <c r="C44" s="7">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
         <v>4010</v>
       </c>
       <c r="E44" s="1"/>
@@ -1984,30 +2220,30 @@
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="3" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>19424</v>
+      <c r="I44" s="3">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>39533</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3" t="n">
+      <c r="C45" s="7">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3">
         <v>4010</v>
       </c>
       <c r="E45" s="1"/>
@@ -2020,30 +2256,30 @@
       <c r="H45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="3" t="n">
-        <v>105</v>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>46956</v>
-      </c>
-      <c r="L45" s="1" t="s">
+      <c r="I45" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>36201</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D46" s="3" t="n">
+      <c r="C46" s="7">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3">
         <v>4010</v>
       </c>
       <c r="E46" s="1"/>
@@ -2056,30 +2292,30 @@
       <c r="H46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>18311</v>
+      <c r="I46" s="3">
+        <v>112</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>35628</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3" t="n">
+      <c r="C47" s="7">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3">
         <v>4010</v>
       </c>
       <c r="E47" s="1"/>
@@ -2092,30 +2328,30 @@
       <c r="H47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="3" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>39533</v>
+      <c r="I47" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>41954</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3" t="n">
+      <c r="C48" s="7">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
         <v>4010</v>
       </c>
       <c r="E48" s="1"/>
@@ -2128,30 +2364,30 @@
       <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="3" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>36201</v>
+      <c r="I48" s="3">
+        <v>97.4</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>21476</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="n">
+      <c r="C49" s="7">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3">
         <v>4010</v>
       </c>
       <c r="E49" s="1"/>
@@ -2164,171 +2400,22 @@
       <c r="H49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="3" t="n">
-        <v>112</v>
-      </c>
-      <c r="J49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>35628</v>
+      <c r="I49" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="K49" s="5">
+        <v>47669</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>4010</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>41954</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>4010</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>97.4</v>
-      </c>
-      <c r="J51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>21476</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>4010</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="3" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>47669</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>4010</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3" t="n">
-        <v>531</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>